--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationrequest-list.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationrequest-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4519" uniqueCount="656">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -276,7 +276,9 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medreq:If one dosage element is present, it should not have a sequence number. 
+              If more than one dosage element is present, the base entry has the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage-medicationrequest') and sequence = 1).exists()) 
+         and (dosageInstruction.count() = 1 implies dosageInstruction.single().sequence.exists().not())}split-dosage-instruction-unit-must-match-base-dosage-instruction:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosageInstruction.count() &gt; 1) implies dosageInstruction.doseAndRate.dose.ofType(Quantity).code.union(dosageInstruction.doseAndRate.dose.ofType(Range).low.code).union(dosageInstruction.doseAndRate.dose.ofType(Range).high.code).union(dosageInstruction.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
     <t>Request</t>
@@ -431,7 +433,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -629,6 +631,12 @@
   <si>
     <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-author}
 </t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>MedicationRequest.extension:authorDocument.id</t>
@@ -1195,7 +1203,7 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)
 </t>
   </si>
   <si>
@@ -1697,14 +1705,14 @@
     <t>MedicationRequest.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage
+    <t xml:space="preserve">Dosage {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-dosage}
 </t>
   </si>
   <si>
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is to be used by the patient.</t>
+    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1714,10 +1722,7 @@
 </t>
   </si>
   <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>see dosageInstruction mapping</t>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:baseEntry</t>
@@ -1730,17 +1735,11 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage (MedicationRequest)</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Base entry of the dosage instruction</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, timing or as needed has to be specified {patientInstruction.exists() or timing.exists() or asNeeded.exists()}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, or timing and dose/rate has to be specified {patientInstruction.exists() or (timing.exists() and doseAndRate.exists())}</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:additionalEntry</t>
@@ -1753,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage Split (MedicationStatement / MedicationDispense / MedicationRequest)</t>
+    <t>Additional entry of the dosage instruction</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest</t>
@@ -1812,23 +1811,13 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>First fill quantity</t>
+  </si>
+  <si>
+    <t>The amount or quantity to provide as part of the first dispense.</t>
+  </si>
+  <si>
+    <t>Supply.quantity[moodCode=RQO]</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.initialFill.duration</t>
@@ -1850,12 +1839,6 @@
     <t>MedicationRequest.dispenseRequest.dispenseInterval</t>
   </si>
   <si>
-    <t>Minimum period of time between dispenses</t>
-  </si>
-  <si>
-    <t>The minimum period of time that must occur between dispenses of the medication.</t>
-  </si>
-  <si>
     <t>MedicationRequest.dispenseRequest.validityPeriod</t>
   </si>
   <si>
@@ -1905,6 +1888,21 @@
     <t>MedicationRequest.dispenseRequest.quantity</t>
   </si>
   <si>
+    <t>Number of packages</t>
+  </si>
+  <si>
+    <t>The amount that is to be dispensed for one fill.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/DaysSupply</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>RXD-4-Actual Dispense Amount / RXD-5.1-Actual Dispense Units.code / RXD-5.3-Actual Dispense Units.name of coding system</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration</t>
   </si>
   <si>
@@ -1926,7 +1924,7 @@
     <t>MedicationRequest.substitution</t>
   </si>
   <si>
-    <t>Any restrictions on medication substitution</t>
+    <t>If absent, substitution is assumed allowed. If present, the value is fixed to none (not allowed).</t>
   </si>
   <si>
     <t>Indicates whether or not substitution can or should be part of the dispense. In some cases, substitution must happen, in other cases substitution must not happen. This block explains the prescriber's intent. If nothing is specified substitution may be done.</t>
@@ -1975,6 +1973,43 @@
   </si>
   <si>
     <t>allowedCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-emed-epr/ValueSet/ch-emed-epr-substance-admin-substitution-code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]:allowedCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]:allowedCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]:allowedCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x].coding</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-substanceAdminSubstitution"/&gt;
+  &lt;code value="N"/&gt;
+  &lt;display value="none"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]:allowedCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -2348,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO118"/>
+  <dimension ref="A1:AO122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2357,17 +2392,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="78.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.44921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="81.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="60.28515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="223.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2376,27 +2411,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="155.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="57.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="161.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="131.0546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="128.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4651,10 +4686,10 @@
         <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4726,7 +4761,7 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
@@ -4737,10 +4772,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4852,10 +4887,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4967,10 +5002,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4996,13 +5031,13 @@
         <v>127</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5010,7 +5045,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>82</v>
@@ -5052,7 +5087,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>91</v>
@@ -5084,10 +5119,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5110,13 +5145,13 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5155,17 +5190,17 @@
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5197,13 +5232,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>82</v>
@@ -5225,13 +5260,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5282,7 +5317,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5314,10 +5349,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5429,14 +5464,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5458,13 +5493,13 @@
         <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5546,13 +5581,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5574,13 +5609,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5663,10 +5698,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5692,13 +5727,13 @@
         <v>105</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5748,7 +5783,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5757,7 +5792,7 @@
         <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>103</v>
@@ -5780,10 +5815,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5809,13 +5844,13 @@
         <v>127</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5844,10 +5879,10 @@
         <v>139</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5865,7 +5900,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5897,10 +5932,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5923,16 +5958,16 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5982,7 +6017,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6003,7 +6038,7 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
@@ -6014,10 +6049,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6043,13 +6078,13 @@
         <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6099,7 +6134,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6131,10 +6166,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6166,7 +6201,7 @@
         <v>182</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6216,7 +6251,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6248,10 +6283,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6274,16 +6309,16 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6333,7 +6368,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6348,27 +6383,27 @@
         <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6480,14 +6515,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6509,13 +6544,13 @@
         <v>111</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6597,10 +6632,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6626,16 +6661,16 @@
         <v>155</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6660,13 +6695,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6684,7 +6719,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6705,7 +6740,7 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
@@ -6716,10 +6751,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6742,19 +6777,19 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6782,10 +6817,10 @@
         <v>139</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6803,7 +6838,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6824,21 +6859,21 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6864,29 +6899,29 @@
         <v>127</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>82</v>
@@ -6922,7 +6957,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6943,21 +6978,21 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6983,13 +7018,13 @@
         <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7003,7 +7038,7 @@
         <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>82</v>
@@ -7039,7 +7074,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7060,21 +7095,21 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7097,13 +7132,13 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7154,7 +7189,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7175,21 +7210,21 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7212,16 +7247,16 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7271,7 +7306,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7292,21 +7327,21 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7332,13 +7367,13 @@
         <v>155</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7364,13 +7399,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7388,7 +7423,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>91</v>
@@ -7403,16 +7438,16 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7420,10 +7455,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7446,7 +7481,7 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>112</v>
@@ -7455,7 +7490,7 @@
         <v>113</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7484,28 +7519,28 @@
         <v>145</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7520,13 +7555,13 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
@@ -7537,10 +7572,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7566,13 +7601,13 @@
         <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7583,7 +7618,7 @@
         <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>82</v>
@@ -7598,13 +7633,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7622,7 +7657,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>91</v>
@@ -7637,16 +7672,16 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7654,10 +7689,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7680,7 +7715,7 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>112</v>
@@ -7689,7 +7724,7 @@
         <v>113</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7718,28 +7753,28 @@
         <v>145</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7757,13 +7792,13 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7771,10 +7806,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7830,31 +7865,31 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Z47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7869,16 +7904,16 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7886,10 +7921,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7912,16 +7947,16 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7971,7 +8006,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7992,7 +8027,7 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -8003,10 +8038,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8029,7 +8064,7 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>112</v>
@@ -8086,7 +8121,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8107,7 +8142,7 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -8118,10 +8153,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8144,16 +8179,16 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8191,17 +8226,17 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>91</v>
@@ -8216,30 +8251,30 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>82</v>
@@ -8261,16 +8296,16 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8320,7 +8355,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>91</v>
@@ -8335,27 +8370,27 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8378,16 +8413,16 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8437,7 +8472,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>91</v>
@@ -8452,27 +8487,27 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8584,14 +8619,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8613,13 +8648,13 @@
         <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8701,10 +8736,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8730,13 +8765,13 @@
         <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8786,7 +8821,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8795,7 +8830,7 @@
         <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>103</v>
@@ -8818,10 +8853,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8847,13 +8882,13 @@
         <v>127</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8882,10 +8917,10 @@
         <v>139</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8903,7 +8938,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8935,10 +8970,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8961,16 +8996,16 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9020,7 +9055,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9041,7 +9076,7 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -9052,10 +9087,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9081,13 +9116,13 @@
         <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9137,7 +9172,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9169,10 +9204,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9195,7 +9230,7 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>112</v>
@@ -9204,7 +9239,7 @@
         <v>113</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9254,7 +9289,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9269,27 +9304,27 @@
         <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9300,7 +9335,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9312,7 +9347,7 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>112</v>
@@ -9369,7 +9404,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9384,16 +9419,16 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9401,10 +9436,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9427,13 +9462,13 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9484,7 +9519,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9499,27 +9534,27 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9542,13 +9577,13 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9599,7 +9634,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9614,16 +9649,16 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9631,10 +9666,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9746,14 +9781,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9775,13 +9810,13 @@
         <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9863,10 +9898,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9892,13 +9927,13 @@
         <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9948,7 +9983,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9957,7 +9992,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -9980,10 +10015,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10009,13 +10044,13 @@
         <v>127</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10044,10 +10079,10 @@
         <v>139</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10065,7 +10100,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10097,10 +10132,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10123,16 +10158,16 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10182,7 +10217,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10203,7 +10238,7 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10214,10 +10249,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10243,13 +10278,13 @@
         <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10299,7 +10334,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10331,10 +10366,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10357,7 +10392,7 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>112</v>
@@ -10414,7 +10449,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10429,16 +10464,16 @@
         <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10446,10 +10481,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10472,7 +10507,7 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>112</v>
@@ -10481,7 +10516,7 @@
         <v>113</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10510,28 +10545,28 @@
         <v>145</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10546,13 +10581,13 @@
         <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10563,10 +10598,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10589,13 +10624,13 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10646,7 +10681,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10667,10 +10702,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10678,10 +10713,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10692,7 +10727,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10704,16 +10739,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10742,10 +10777,10 @@
         <v>145</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10763,7 +10798,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10778,27 +10813,27 @@
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10910,10 +10945,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11025,10 +11060,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11054,16 +11089,16 @@
         <v>137</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11112,7 +11147,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11133,21 +11168,21 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11173,16 +11208,16 @@
         <v>105</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11231,7 +11266,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11252,21 +11287,21 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11289,7 +11324,7 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>112</v>
@@ -11298,7 +11333,7 @@
         <v>113</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11348,7 +11383,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11363,16 +11398,16 @@
         <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11380,10 +11415,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11406,7 +11441,7 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>112</v>
@@ -11463,7 +11498,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11478,13 +11513,13 @@
         <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11495,10 +11530,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11578,7 +11613,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11599,7 +11634,7 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11610,10 +11645,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11636,7 +11671,7 @@
         <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>112</v>
@@ -11693,7 +11728,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11708,13 +11743,13 @@
         <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11725,10 +11760,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11751,7 +11786,7 @@
         <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>112</v>
@@ -11761,7 +11796,7 @@
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11810,7 +11845,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11825,13 +11860,13 @@
         <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11842,10 +11877,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11868,7 +11903,7 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>112</v>
@@ -11877,7 +11912,7 @@
         <v>113</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11906,28 +11941,28 @@
         <v>145</v>
       </c>
       <c r="Y82" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF82" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11948,7 +11983,7 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -11959,10 +11994,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11985,7 +12020,7 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>112</v>
@@ -12042,7 +12077,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12057,13 +12092,13 @@
         <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12074,10 +12109,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12100,13 +12135,13 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12157,7 +12192,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12172,13 +12207,13 @@
         <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12189,10 +12224,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12304,10 +12339,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12419,10 +12454,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12445,16 +12480,16 @@
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>113</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12504,7 +12539,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12525,7 +12560,7 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12536,10 +12571,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12562,7 +12597,7 @@
         <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>112</v>
@@ -12619,7 +12654,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12640,7 +12675,7 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12651,10 +12686,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12677,13 +12712,13 @@
         <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12734,7 +12769,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>91</v>
@@ -12755,7 +12790,7 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
@@ -12766,10 +12801,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12792,16 +12827,16 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12839,17 +12874,17 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AC90" s="2"/>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12864,13 +12899,13 @@
         <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -12881,13 +12916,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>82</v>
@@ -12909,16 +12944,16 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12968,7 +13003,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12989,7 +13024,7 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
@@ -13000,13 +13035,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C92" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>82</v>
@@ -13028,16 +13063,16 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="M92" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13087,7 +13122,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13108,7 +13143,7 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
@@ -13119,10 +13154,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13145,13 +13180,13 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13202,7 +13237,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13220,10 +13255,10 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
@@ -13234,10 +13269,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13349,14 +13384,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13378,13 +13413,13 @@
         <v>111</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13466,10 +13501,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13501,7 +13536,7 @@
         <v>182</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13551,7 +13586,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13583,10 +13618,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13609,7 +13644,7 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>112</v>
@@ -13618,7 +13653,7 @@
         <v>113</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13668,7 +13703,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13689,7 +13724,7 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
@@ -13700,10 +13735,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13815,14 +13850,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13844,13 +13879,13 @@
         <v>111</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13932,10 +13967,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13967,7 +14002,7 @@
         <v>182</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14017,7 +14052,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14049,10 +14084,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14075,17 +14110,15 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M101" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>573</v>
-      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14134,7 +14167,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14143,10 +14176,10 @@
         <v>91</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>574</v>
+        <v>103</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14155,21 +14188,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>576</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14192,13 +14225,13 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14249,7 +14282,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14270,7 +14303,7 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
@@ -14281,10 +14314,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14307,13 +14340,13 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>583</v>
+        <v>112</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>584</v>
+        <v>113</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14364,7 +14397,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14385,7 +14418,7 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
@@ -14396,10 +14429,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14422,19 +14455,19 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14483,7 +14516,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14501,10 +14534,10 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
@@ -14515,10 +14548,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14541,16 +14574,16 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14600,7 +14633,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14618,24 +14651,24 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14658,17 +14691,15 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -14717,7 +14748,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14726,33 +14757,33 @@
         <v>91</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>574</v>
+        <v>103</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>576</v>
+        <v>599</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14775,7 +14806,7 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>112</v>
@@ -14784,7 +14815,7 @@
         <v>113</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14834,7 +14865,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -14852,10 +14883,10 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>82</v>
@@ -14866,10 +14897,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14892,7 +14923,7 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>112</v>
@@ -14949,7 +14980,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -14970,10 +15001,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -14981,10 +15012,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15007,13 +15038,13 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15064,7 +15095,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15082,10 +15113,10 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
@@ -15096,10 +15127,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15211,14 +15242,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15240,13 +15271,13 @@
         <v>111</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15328,10 +15359,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15363,7 +15394,7 @@
         <v>182</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15413,7 +15444,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15445,10 +15476,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15471,16 +15502,16 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15509,26 +15540,26 @@
         <v>145</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="Z113" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="Z113" t="s" s="2">
-        <v>620</v>
-      </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AC113" s="2"/>
       <c r="AD113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>91</v>
@@ -15546,27 +15577,27 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO113" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>622</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C114" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>82</v>
@@ -15588,16 +15619,16 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15623,11 +15654,11 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -15645,7 +15676,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>91</v>
@@ -15663,16 +15694,16 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM114" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO114" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>622</v>
       </c>
     </row>
     <row r="115">
@@ -15680,7 +15711,7 @@
         <v>625</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15703,13 +15734,13 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15736,13 +15767,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>626</v>
+        <v>82</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>627</v>
+        <v>82</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -15760,7 +15791,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>625</v>
+        <v>108</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -15772,41 +15803,41 @@
         <v>82</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>629</v>
+        <v>109</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>630</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -15818,16 +15849,16 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>632</v>
+        <v>111</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>113</v>
+        <v>227</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>633</v>
+        <v>228</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15865,40 +15896,40 @@
         <v>82</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC116" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>631</v>
+        <v>117</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>634</v>
+        <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>635</v>
+        <v>109</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
@@ -15909,14 +15940,14 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>637</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -15932,21 +15963,23 @@
         <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>638</v>
+        <v>137</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>112</v>
+        <v>470</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>113</v>
+        <v>471</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O117" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
       </c>
@@ -15955,7 +15988,7 @@
         <v>82</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>82</v>
+        <v>631</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>82</v>
@@ -15994,7 +16027,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>636</v>
+        <v>474</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16015,21 +16048,21 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>640</v>
+        <v>475</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16040,7 +16073,7 @@
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16049,21 +16082,23 @@
         <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>642</v>
+        <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>112</v>
+        <v>634</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="O118" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16111,13 +16146,13 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>641</v>
+        <v>482</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>82</v>
@@ -16126,18 +16161,484 @@
         <v>103</v>
       </c>
       <c r="AK118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK120" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="AL118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AL120" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="AN118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO118" t="s" s="2">
+      <c r="AN120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O122" s="2"/>
+      <c r="P122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO122" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationrequest-list.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationrequest-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4519" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="602">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,8 +276,8 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medreq:If one dosage element is present, it should not have a sequence number. 
-              If more than one dosage element is present, the base entry has the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage-medicationrequest') and sequence = 1).exists()) 
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medreq:If one dosage element is present, it SHALL NOT have a sequence number. 
+              If more than one dosage element is present, the base entry SHALL have the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage-medicationrequest') and sequence = 1).exists()) 
          and (dosageInstruction.count() = 1 implies dosageInstruction.single().sequence.exists().not())}split-dosage-instruction-unit-must-match-base-dosage-instruction:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosageInstruction.count() &gt; 1) implies dosageInstruction.doseAndRate.dose.ofType(Quantity).code.union(dosageInstruction.doseAndRate.dose.ofType(Range).low.code).union(dosageInstruction.doseAndRate.dose.ofType(Range).high.code).union(dosageInstruction.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
@@ -426,7 +426,7 @@
     <t>MedicationRequest.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -458,7 +458,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -476,7 +476,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -520,7 +520,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -678,32 +678,6 @@
     <t>MedicationRequest.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:authorDocument.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-practitionerrole|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-patient|http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-related-person)
 </t>
   </si>
@@ -711,13 +685,19 @@
     <t>Author of the content</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:authorDocument.value[x]:valueReference.id</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:authorDocument.value[x].id</t>
   </si>
   <si>
     <t>MedicationRequest.extension.value[x].id</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:authorDocument.value[x]:valueReference.extension</t>
+    <t>MedicationRequest.extension:authorDocument.value[x].extension</t>
   </si>
   <si>
     <t>MedicationRequest.extension.value[x].extension</t>
@@ -736,7 +716,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:authorDocument.value[x]:valueReference.extension:time</t>
+    <t>MedicationRequest.extension:authorDocument.value[x].extension:time</t>
   </si>
   <si>
     <t>time</t>
@@ -749,10 +729,10 @@
     <t>Timestamp of the authorship/data input</t>
   </si>
   <si>
-    <t>Extension to define the timestamp of the authorship/data input</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:authorDocument.value[x]:valueReference.reference</t>
+    <t>Extension to define the timestamp of the authorship/data input. This extension has its origin from CDA and is deprecated.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:authorDocument.value[x].reference</t>
   </si>
   <si>
     <t>MedicationRequest.extension.value[x].reference</t>
@@ -774,7 +754,7 @@
 </t>
   </si>
   <si>
-    <t>MedicationRequest.extension:authorDocument.value[x]:valueReference.type</t>
+    <t>MedicationRequest.extension:authorDocument.value[x].type</t>
   </si>
   <si>
     <t>MedicationRequest.extension.value[x].type</t>
@@ -793,13 +773,13 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:authorDocument.value[x]:valueReference.identifier</t>
+    <t>MedicationRequest.extension:authorDocument.value[x].identifier</t>
   </si>
   <si>
     <t>MedicationRequest.extension.value[x].identifier</t>
@@ -827,7 +807,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>MedicationRequest.extension:authorDocument.value[x]:valueReference.display</t>
+    <t>MedicationRequest.extension:authorDocument.value[x].display</t>
   </si>
   <si>
     <t>MedicationRequest.extension.value[x].display</t>
@@ -848,7 +828,7 @@
     <t>MedicationRequest.modifierExtension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -857,6 +837,10 @@
     <t>MedicationRequest.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
     <t>MedicationRequest Identifier</t>
   </si>
   <si>
@@ -881,214 +865,53 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>MedicationRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>MedicationRequest.status</t>
+  </si>
+  <si>
+    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+  </si>
+  <si>
+    <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.type</t>
+    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>no mapping</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>MedicationRequest.statusReason</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>MedicationRequest.status</t>
-  </si>
-  <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>no mapping</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>MedicationRequest.statusReason</t>
-  </si>
-  <si>
     <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled". The reason why the MedicationRequest was created at all is captured in reasonCode, not here.</t>
   </si>
   <si>
     <t>Identifies the reasons for a given status.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -1140,7 +963,7 @@
     <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category|4.0.1</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -1194,7 +1017,7 @@
   </si>
   <si>
     <t>boolean
-Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)</t>
+Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role</t>
@@ -1214,6 +1037,13 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1304,7 +1134,7 @@
     <t>MedicationRequest.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1326,7 +1156,7 @@
     <t>MedicationRequest.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1404,7 +1234,7 @@
     <t>MedicationRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -1426,7 +1256,7 @@
     <t>Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1438,7 +1268,7 @@
     <t>MedicationRequest.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1470,7 +1300,7 @@
     <t>A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1545,7 +1375,7 @@
     <t>MedicationRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1577,7 +1407,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|MedicationRequest|ServiceRequest|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|MedicationRequest|4.0.1|ServiceRequest|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1608,7 +1438,7 @@
     <t>Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy|4.0.1</t>
   </si>
   <si>
     <t>Act.code where classCode = LIST and moodCode = EVN</t>
@@ -1617,7 +1447,7 @@
     <t>MedicationRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1658,7 +1488,7 @@
     <t>MedicationRequest.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1712,7 +1542,7 @@
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Indicates how the medication is to be used by the patient.</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1722,7 +1552,10 @@
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>see dosageInstruction mapping</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:baseEntry</t>
@@ -1738,10 +1571,6 @@
     <t>Base entry of the dosage instruction</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, or timing and dose/rate has to be specified {patientInstruction.exists() or (timing.exists() and doseAndRate.exists())}</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction:additionalEntry</t>
   </si>
   <si>
@@ -1842,6 +1671,10 @@
     <t>MedicationRequest.dispenseRequest.validityPeriod</t>
   </si>
   <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
     <t>Period of validity of the prescription</t>
   </si>
   <si>
@@ -1916,6 +1749,10 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SPLY, moodCode=RQO] .participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
@@ -2033,7 +1870,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -2053,7 +1890,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
+    <t xml:space="preserve">Reference(DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -2066,7 +1903,7 @@
     <t>MedicationRequest.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2383,7 +2220,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO122"/>
+  <dimension ref="A1:AO113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2392,46 +2229,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="81.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.28515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.83203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="218.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="187.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="236.34765625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="161.5859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="138.53125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.7421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="50.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="128.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="110.09375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5190,17 +5027,19 @@
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5232,20 +5071,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>91</v>
@@ -5260,13 +5097,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5317,7 +5154,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5329,7 +5166,7 @@
         <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
@@ -5338,7 +5175,7 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
@@ -5349,21 +5186,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -5375,15 +5212,17 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5420,31 +5259,31 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5467,18 +5306,20 @@
         <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5490,7 +5331,7 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>226</v>
@@ -5498,9 +5339,7 @@
       <c r="M27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5537,16 +5376,16 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>117</v>
@@ -5570,7 +5409,7 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
@@ -5581,20 +5420,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>91</v>
@@ -5606,18 +5443,20 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5666,19 +5505,19 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5687,7 +5526,7 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
@@ -5698,10 +5537,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5709,7 +5548,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>91</v>
@@ -5724,16 +5563,16 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5759,13 +5598,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5783,7 +5622,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5792,7 +5631,7 @@
         <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>103</v>
@@ -5815,10 +5654,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5841,16 +5680,16 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5876,13 +5715,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5900,7 +5739,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5921,7 +5760,7 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
@@ -5932,10 +5771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5958,16 +5797,16 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6017,7 +5856,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6038,7 +5877,7 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
@@ -6052,7 +5891,7 @@
         <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6063,28 +5902,28 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6134,19 +5973,19 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6155,7 +5994,7 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -6166,10 +6005,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6177,28 +6016,28 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>264</v>
@@ -6251,7 +6090,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6263,30 +6102,30 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6303,22 +6142,22 @@
         <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6344,13 +6183,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6368,13 +6207,13 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
@@ -6383,27 +6222,27 @@
         <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6426,15 +6265,17 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6459,13 +6300,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6483,7 +6324,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6495,16 +6336,16 @@
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6515,42 +6356,42 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6561,7 +6402,7 @@
         <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>82</v>
@@ -6576,55 +6417,55 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6632,10 +6473,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6646,32 +6487,30 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6695,13 +6534,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6719,13 +6558,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6737,24 +6576,24 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6777,20 +6616,16 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>112</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6814,13 +6649,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6838,7 +6673,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6853,27 +6688,27 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6881,47 +6716,45 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>127</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>82</v>
@@ -6957,7 +6790,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6978,21 +6811,21 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7000,7 +6833,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>91</v>
@@ -7015,17 +6848,15 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7038,7 +6869,7 @@
         <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>82</v>
@@ -7074,7 +6905,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7095,21 +6926,21 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7117,7 +6948,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -7132,15 +6963,17 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7177,22 +7010,20 @@
         <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>91</v>
@@ -7204,29 +7035,31 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7247,16 +7080,16 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7306,10 +7139,10 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>91</v>
@@ -7321,27 +7154,27 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>328</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7358,22 +7191,22 @@
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>155</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7399,31 +7232,31 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>91</v>
@@ -7438,27 +7271,27 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7481,17 +7314,15 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7516,13 +7347,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7540,7 +7371,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7552,16 +7383,16 @@
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>345</v>
+        <v>109</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
@@ -7579,35 +7410,35 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>220</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>349</v>
+        <v>222</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7618,7 +7449,7 @@
         <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>82</v>
@@ -7633,55 +7464,55 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>346</v>
+        <v>117</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>354</v>
+        <v>109</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7689,10 +7520,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7700,10 +7531,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7712,19 +7543,19 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7750,13 +7581,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7774,16 +7605,16 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>356</v>
+        <v>233</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>103</v>
@@ -7792,13 +7623,13 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>361</v>
+        <v>178</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7806,10 +7637,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7832,15 +7663,17 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7865,13 +7698,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>363</v>
+        <v>240</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>364</v>
+        <v>241</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7889,7 +7722,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>242</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7904,16 +7737,16 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>366</v>
+        <v>178</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7921,10 +7754,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7935,28 +7768,28 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>246</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>372</v>
+        <v>248</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8006,7 +7839,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8027,7 +7860,7 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -8038,10 +7871,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8064,15 +7897,17 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8121,7 +7956,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>256</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8142,7 +7977,7 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>376</v>
+        <v>178</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -8153,10 +7988,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8164,7 +7999,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>91</v>
@@ -8176,19 +8011,19 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>112</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8226,20 +8061,22 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>91</v>
@@ -8251,31 +8088,29 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>386</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8284,7 +8119,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8293,20 +8128,18 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>112</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8355,13 +8188,13 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -8370,27 +8203,27 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8413,17 +8246,15 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8472,10 +8303,10 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>91</v>
@@ -8487,27 +8318,27 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8515,7 +8346,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>91</v>
@@ -8527,16 +8358,16 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>105</v>
+        <v>372</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>106</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>107</v>
+        <v>374</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8587,7 +8418,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8599,19 +8430,19 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8619,21 +8450,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8645,17 +8476,15 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8692,31 +8521,31 @@
         <v>82</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8736,21 +8565,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8759,19 +8588,19 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8809,31 +8638,31 @@
         <v>82</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8842,7 +8671,7 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
@@ -8853,10 +8682,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8864,7 +8693,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>91</v>
@@ -8879,16 +8708,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8914,13 +8743,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -8938,7 +8767,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8947,7 +8776,7 @@
         <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>103</v>
@@ -8970,10 +8799,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8996,16 +8825,16 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9031,13 +8860,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9055,7 +8884,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9076,7 +8905,7 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -9087,10 +8916,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9113,16 +8942,16 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9172,7 +9001,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9193,7 +9022,7 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -9204,10 +9033,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9227,19 +9056,19 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>408</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>409</v>
+        <v>255</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9289,7 +9118,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>407</v>
+        <v>256</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9304,27 +9133,27 @@
         <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>411</v>
+        <v>178</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9335,7 +9164,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9347,7 +9176,7 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>112</v>
@@ -9404,13 +9233,13 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
@@ -9419,16 +9248,16 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9436,10 +9265,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9447,7 +9276,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>91</v>
@@ -9462,15 +9291,17 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>419</v>
+        <v>282</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>420</v>
+        <v>112</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9495,13 +9326,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9519,7 +9350,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9534,27 +9365,27 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9562,7 +9393,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>91</v>
@@ -9574,16 +9405,16 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9634,7 +9465,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9649,7 +9480,7 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
@@ -9658,7 +9489,7 @@
         <v>398</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9666,10 +9497,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9680,7 +9511,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9692,15 +9523,17 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>105</v>
+        <v>282</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9725,13 +9558,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9749,53 +9582,53 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>108</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9807,17 +9640,15 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9854,31 +9685,31 @@
         <v>82</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -9898,10 +9729,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9909,10 +9740,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -9921,20 +9752,18 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9971,31 +9800,31 @@
         <v>82</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10004,7 +9833,7 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -10015,10 +9844,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10029,7 +9858,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10041,18 +9870,20 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>243</v>
+        <v>414</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10076,13 +9907,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10100,13 +9931,13 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>248</v>
+        <v>418</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
@@ -10121,21 +9952,21 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10143,7 +9974,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
@@ -10158,18 +9989,20 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>252</v>
+        <v>422</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>253</v>
+        <v>423</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10217,7 +10050,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10238,21 +10071,21 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>256</v>
+        <v>427</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10263,7 +10096,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10272,19 +10105,19 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>105</v>
+        <v>430</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>259</v>
+        <v>112</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>261</v>
+        <v>431</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10334,13 +10167,13 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>262</v>
+        <v>429</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
@@ -10349,16 +10182,16 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>82</v>
+        <v>432</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10366,10 +10199,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10380,7 +10213,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10389,10 +10222,10 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>112</v>
@@ -10449,13 +10282,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10464,16 +10297,16 @@
         <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10481,10 +10314,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10495,7 +10328,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10507,7 +10340,7 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>112</v>
@@ -10515,9 +10348,7 @@
       <c r="M70" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>445</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10542,13 +10373,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10566,13 +10397,13 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
@@ -10581,13 +10412,13 @@
         <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10598,10 +10429,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10612,7 +10443,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10621,16 +10452,16 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>452</v>
+        <v>112</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>453</v>
+        <v>113</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10681,13 +10512,13 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
@@ -10696,16 +10527,16 @@
         <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10713,10 +10544,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10727,7 +10558,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10736,21 +10567,21 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>457</v>
+        <v>112</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10774,13 +10605,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10798,13 +10629,13 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -10813,27 +10644,27 @@
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10856,15 +10687,17 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>282</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10889,13 +10722,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10913,7 +10746,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>108</v>
+        <v>447</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10925,7 +10758,7 @@
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -10934,7 +10767,7 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>109</v>
+        <v>451</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -10945,10 +10778,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10971,7 +10804,7 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>111</v>
+        <v>453</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>112</v>
@@ -11016,19 +10849,19 @@
         <v>82</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>117</v>
+        <v>452</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11040,16 +10873,16 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11060,10 +10893,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11083,23 +10916,19 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>137</v>
+        <v>457</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11147,7 +10976,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11162,27 +10991,27 @@
         <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>476</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11190,7 +11019,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>91</v>
@@ -11202,23 +11031,19 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>478</v>
+        <v>112</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11266,7 +11091,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>482</v>
+        <v>108</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11278,7 +11103,7 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -11287,21 +11112,21 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>483</v>
+        <v>109</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>484</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11324,7 +11149,7 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>486</v>
+        <v>111</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>112</v>
@@ -11332,9 +11157,7 @@
       <c r="M77" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N77" t="s" s="2">
-        <v>487</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11371,19 +11194,19 @@
         <v>82</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>485</v>
+        <v>117</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11395,19 +11218,19 @@
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11415,10 +11238,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11429,7 +11252,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11441,15 +11264,17 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>112</v>
+        <v>467</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11498,13 +11323,13 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
@@ -11513,27 +11338,27 @@
         <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11544,7 +11369,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11556,7 +11381,7 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>127</v>
+        <v>363</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>112</v>
@@ -11613,13 +11438,13 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>82</v>
@@ -11634,21 +11459,21 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11656,10 +11481,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11671,13 +11496,13 @@
         <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>112</v>
+        <v>476</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>113</v>
+        <v>477</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11728,13 +11553,13 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
@@ -11743,27 +11568,27 @@
         <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11771,10 +11596,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11783,21 +11608,21 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>251</v>
+        <v>481</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>112</v>
+        <v>482</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -11833,25 +11658,23 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -11860,13 +11683,13 @@
         <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11877,18 +11700,20 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>91</v>
@@ -11903,16 +11728,16 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>288</v>
+        <v>490</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>112</v>
+        <v>491</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>113</v>
+        <v>483</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11938,13 +11763,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>505</v>
+        <v>82</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -11962,13 +11787,13 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
@@ -11977,13 +11802,13 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -11994,12 +11819,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12020,15 +11847,17 @@
         <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>112</v>
+        <v>495</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12077,7 +11906,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12092,13 +11921,13 @@
         <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12109,10 +11938,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12123,7 +11952,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>82</v>
@@ -12135,13 +11964,13 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12192,13 +12021,13 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>82</v>
@@ -12207,13 +12036,13 @@
         <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12224,10 +12053,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12253,10 +12082,10 @@
         <v>105</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12339,14 +12168,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12368,12 +12197,14 @@
         <v>111</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12410,16 +12241,16 @@
         <v>82</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>117</v>
@@ -12443,7 +12274,7 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
@@ -12454,10 +12285,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12468,28 +12299,28 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>522</v>
+        <v>111</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>523</v>
+        <v>181</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>524</v>
+        <v>258</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12539,19 +12370,19 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12560,21 +12391,21 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12594,10 +12425,10 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>419</v>
+        <v>497</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>112</v>
@@ -12605,7 +12436,9 @@
       <c r="M88" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12654,7 +12487,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12675,21 +12508,21 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12697,7 +12530,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>91</v>
@@ -12709,16 +12542,16 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>531</v>
+        <v>105</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>532</v>
+        <v>106</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>533</v>
+        <v>107</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12769,10 +12602,10 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>534</v>
+        <v>108</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>91</v>
@@ -12781,7 +12614,7 @@
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -12790,29 +12623,29 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>535</v>
+        <v>109</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>81</v>
@@ -12827,16 +12660,16 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>537</v>
+        <v>111</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>538</v>
+        <v>220</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>539</v>
+        <v>221</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>540</v>
+        <v>222</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12874,17 +12707,19 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AC90" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>536</v>
+        <v>117</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12896,7 +12731,7 @@
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -12905,7 +12740,7 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>542</v>
+        <v>109</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -12916,44 +12751,42 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>545</v>
+        <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>546</v>
+        <v>181</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>539</v>
+        <v>182</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>540</v>
+        <v>258</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13003,7 +12836,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13015,7 +12848,7 @@
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>547</v>
+        <v>118</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13024,7 +12857,7 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
@@ -13035,14 +12868,12 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13051,7 +12882,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13063,17 +12894,15 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13122,13 +12951,13 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
@@ -13143,7 +12972,7 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
@@ -13154,10 +12983,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13180,13 +13009,13 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13237,7 +13066,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13255,10 +13084,10 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>556</v>
+        <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
@@ -13269,10 +13098,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13295,13 +13124,13 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>105</v>
+        <v>518</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13352,7 +13181,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>108</v>
+        <v>522</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13364,7 +13193,7 @@
         <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -13373,7 +13202,7 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>109</v>
+        <v>521</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
@@ -13384,21 +13213,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -13410,18 +13239,20 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>111</v>
+        <v>524</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>226</v>
+        <v>525</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>227</v>
+        <v>526</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13469,28 +13300,28 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>117</v>
+        <v>523</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>109</v>
+        <v>530</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
@@ -13501,10 +13332,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13515,28 +13346,28 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>111</v>
+        <v>532</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>181</v>
+        <v>533</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>182</v>
+        <v>534</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>264</v>
+        <v>535</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13586,42 +13417,42 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>82</v>
+        <v>536</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>82</v>
+        <v>538</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13644,17 +13475,15 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>112</v>
+        <v>540</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13703,7 +13532,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13721,24 +13550,24 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>82</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13761,15 +13590,17 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>105</v>
+        <v>518</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -13818,7 +13649,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>108</v>
+        <v>545</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13830,16 +13661,16 @@
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>109</v>
+        <v>548</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
@@ -13850,21 +13681,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
@@ -13876,17 +13707,15 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>111</v>
+        <v>550</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -13935,19 +13764,19 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>117</v>
+        <v>549</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -13956,10 +13785,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>109</v>
+        <v>551</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -13967,10 +13796,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13981,29 +13810,27 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>111</v>
+        <v>497</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>181</v>
+        <v>553</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14052,28 +13879,28 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>82</v>
+        <v>556</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
@@ -14084,10 +13911,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14110,13 +13937,13 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>569</v>
+        <v>105</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>570</v>
+        <v>106</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>571</v>
+        <v>107</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14167,7 +13994,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>568</v>
+        <v>108</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14179,7 +14006,7 @@
         <v>82</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14188,7 +14015,7 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>572</v>
+        <v>109</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
@@ -14199,21 +14026,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14225,15 +14052,17 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>574</v>
+        <v>111</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>575</v>
+        <v>220</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14282,19 +14111,19 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>573</v>
+        <v>117</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -14303,7 +14132,7 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>577</v>
+        <v>109</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
@@ -14314,10 +14143,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14328,27 +14157,29 @@
         <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>574</v>
+        <v>111</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14397,19 +14228,19 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>578</v>
+        <v>505</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14418,7 +14249,7 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
@@ -14429,10 +14260,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14440,7 +14271,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>91</v>
@@ -14455,20 +14286,18 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14492,34 +14321,32 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>82</v>
+        <v>564</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="AC104" s="2"/>
       <c r="AD104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>91</v>
@@ -14534,26 +14361,28 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>82</v>
+        <v>567</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="D105" t="s" s="2">
         <v>82</v>
       </c>
@@ -14574,16 +14403,16 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>587</v>
+        <v>282</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14609,13 +14438,11 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
-        <v>82</v>
+        <v>570</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -14633,10 +14460,10 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>91</v>
@@ -14651,24 +14478,24 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>593</v>
+        <v>567</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14691,13 +14518,13 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>569</v>
+        <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>595</v>
+        <v>106</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>596</v>
+        <v>107</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14748,7 +14575,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>594</v>
+        <v>108</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14760,41 +14587,41 @@
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>597</v>
+        <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>598</v>
+        <v>109</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>599</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>82</v>
@@ -14806,16 +14633,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>574</v>
+        <v>111</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>601</v>
+        <v>222</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14853,40 +14680,40 @@
         <v>82</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>600</v>
+        <v>117</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>603</v>
+        <v>109</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>82</v>
@@ -14897,10 +14724,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14911,7 +14738,7 @@
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -14920,19 +14747,23 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -14941,7 +14772,7 @@
         <v>82</v>
       </c>
       <c r="S108" t="s" s="2">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>82</v>
@@ -14980,13 +14811,13 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>604</v>
+        <v>418</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>82</v>
@@ -15001,21 +14832,21 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>605</v>
+        <v>419</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15035,19 +14866,23 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>553</v>
+        <v>105</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15095,7 +14930,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>606</v>
+        <v>426</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15113,24 +14948,24 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>610</v>
+        <v>427</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15153,13 +14988,13 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>105</v>
+        <v>282</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15186,13 +15021,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>82</v>
+        <v>583</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15210,7 +15045,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>108</v>
+        <v>581</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15222,41 +15057,41 @@
         <v>82</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>109</v>
+        <v>585</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15268,16 +15103,16 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>111</v>
+        <v>588</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>228</v>
+        <v>589</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15327,28 +15162,28 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>117</v>
+        <v>587</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>82</v>
+        <v>590</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>109</v>
+        <v>591</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>82</v>
@@ -15359,42 +15194,42 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>111</v>
+        <v>594</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>264</v>
+        <v>595</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15444,7 +15279,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15456,7 +15291,7 @@
         <v>82</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
@@ -15465,7 +15300,7 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>82</v>
@@ -15476,10 +15311,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15487,10 +15322,10 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>82</v>
@@ -15502,16 +15337,16 @@
         <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>288</v>
+        <v>598</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>615</v>
+        <v>112</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>616</v>
+        <v>113</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15537,35 +15372,37 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>618</v>
+        <v>82</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AC113" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>82</v>
@@ -15574,1071 +15411,18 @@
         <v>103</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="D114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Y114" s="2"/>
-      <c r="Z114" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="O120" s="2"/>
-      <c r="P120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="O122" s="2"/>
-      <c r="P122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO122" t="s" s="2">
         <v>82</v>
       </c>
     </row>
